--- a/PriceComparisonRobot2/PriceComarisonRobot2/out3.xlsx
+++ b/PriceComparisonRobot2/PriceComarisonRobot2/out3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>CategoryId</x:t>
   </x:si>
@@ -154,9 +154,6 @@
     <x:t>Gigabyte GeForce RTX 4060 Ti GAMING OC videokártya, 8GB GDDR6, 128-bit</x:t>
   </x:si>
   <x:si>
-    <x:t>Gigabyte GeForce RTX 4060 Ti AERO OC videokártya, 8 GB GDDR6, 128-bit</x:t>
-  </x:si>
-  <x:si>
     <x:t>GIGABYTE AORUS GeForce RTX 4060 ELITE videokártya, PCI-Ex16x, 8GB GDDR6</x:t>
   </x:si>
   <x:si>
@@ -184,91 +181,85 @@
     <x:t>Gigabyte GeForce RTX 4060 Ti Eagle videokártya, 8 GB GDDR6, 128-bit</x:t>
   </x:si>
   <x:si>
+    <x:t>Zotac GAMING GeForce RTX 4060 Ti Twin Edge OC NVIDIA 8 GB GDDR6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS DUAL GeForce RTX 4060 O8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE GeForce RTX 4060 EAGLE OC 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE GeForce RTX 4060 WINDFORCE OC 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS ROG STRIX GeForce RTX 4060 Ti A16G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS PROART GeForce RTX 4060 O8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE GeForce RTX 4060 Ti GAMING OC 16G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE GeForce RTX 4060 GAMING OC 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI GeForce RTX 4060 Ti VENTUS 2X BLACK 16G OC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI GeForce RTX 4060 VENTUS 2X BLACK 8G OC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI GeForce RTX 4060 GAMING X 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS DUAL GeForce RTX 4060 Ti O8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS ProArt GeForce RTX 4060 Ti O16G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE GeForce RTX 4060 Ti WINDFORCE OC 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inno3D GeForce RTX 4060 Ti Twin X2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAINWARD GeForce RTX 4060 Ti Ghost 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS DUAL GeForce RTX 4060 Ti O16G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAINWARD GeForce RTX 4060 Ghost 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI GeForce RTX 4060 Ti GAMING X SLIM 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE GeForce RTX 4060 Ti AERO OC 16G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inno3D GeForce RTX 4060 Ti Twin X2 OC White</x:t>
+  </x:si>
+  <x:si>
     <x:t>Inno3D GeForce RTX 4060 Twin X2 OC</x:t>
   </x:si>
   <x:si>
-    <x:t>GAINWARD GeForce RTX 4060 Ghost 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS DUAL GeForce RTX 4060 O8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI GeForce RTX 4060 VENTUS 2X BLACK 8G OC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE GeForce RTX 4060 EAGLE OC 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS PROART GeForce RTX 4060 O8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE GeForce RTX 4060 GAMING OC 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS DUAL GeForce RTX 4060 O8G EVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI GeForce RTX 4060 GAMING X 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inno3D GeForce RTX 4060 Ti Twin X2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAINWARD GeForce RTX 4060 Ti Ghost 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE GeForce RTX 4060 Ti WINDFORCE OC 8G</x:t>
+    <x:t>GIGABYTE GeForce RTX 4060 Ti EAGLE OC 8G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inno3D GeForce RTX 4060 Ti iChill X3 8G White</x:t>
   </x:si>
   <x:si>
     <x:t>MSI GeForce RTX 4060 Ti VENTUS 2X BLACK 8G OC</x:t>
   </x:si>
   <x:si>
-    <x:t>ASUS DUAL GeForce RTX 4060 Ti O8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE GeForce RTX 4060 WINDFORCE OC 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inno3D GeForce RTX 4060 Ti Twin X2 OC White</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE GeForce RTX 4060 Ti EAGLE OC 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI GeForce RTX 4060 Ti VENTUS 2X BLACK 16G OC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS DUAL GeForce RTX 4060 Ti O16G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inno3D GeForce RTX 4060 Ti iChill X3 8G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 16G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inno3D GeForce RTX 4060 Ti iChill X3 8G White</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS ProArt GeForce RTX 4060 Ti O16G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI GeForce RTX 4060 Ti GAMING X SLIM 8G</x:t>
-  </x:si>
-  <x:si>
     <x:t>MSI GeForce RTX 4060 Ti GAMING X 16G</x:t>
   </x:si>
   <x:si>
     <x:t>GAINWARD GeForce RTX 4060 Ti Panther 16G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE GeForce RTX 4060 Ti GAMING OC 16G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE GeForce RTX 4060 Ti AERO OC 16G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS ROG STRIX GeForce RTX 4060 Ti A16G</x:t>
   </x:si>
   <x:si>
     <x:t>MSI GeForce RTX 4060 Ti GAMING X SLIM WHITE 16G</x:t>
@@ -1399,7 +1390,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>183090</x:v>
+        <x:v>183390</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
         <x:v>37</x:v>
@@ -1419,7 +1410,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>183390</x:v>
+        <x:v>184160</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
         <x:v>37</x:v>
@@ -1439,7 +1430,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>184160</x:v>
+        <x:v>186090</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
         <x:v>37</x:v>
@@ -1459,7 +1450,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>186090</x:v>
+        <x:v>187620</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
         <x:v>37</x:v>
@@ -1479,7 +1470,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>187620</x:v>
+        <x:v>188860</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
         <x:v>37</x:v>
@@ -1499,7 +1490,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>188860</x:v>
+        <x:v>189265</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
         <x:v>37</x:v>
@@ -1519,7 +1510,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>189265</x:v>
+        <x:v>189780</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
         <x:v>37</x:v>
@@ -1559,7 +1550,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>189780</x:v>
+        <x:v>190490</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
         <x:v>37</x:v>
@@ -1579,7 +1570,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>190490</x:v>
+        <x:v>192400</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
         <x:v>37</x:v>
@@ -1619,7 +1610,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>130390</x:v>
+        <x:v>134990</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
         <x:v>38</x:v>
@@ -1639,7 +1630,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>131990</x:v>
+        <x:v>139290</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
         <x:v>38</x:v>
@@ -1659,7 +1650,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>134990</x:v>
+        <x:v>179190</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
         <x:v>38</x:v>
@@ -1679,7 +1670,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>136890</x:v>
+        <x:v>252590</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
         <x:v>38</x:v>
@@ -1699,7 +1690,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>139290</x:v>
+        <x:v>142890</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
         <x:v>38</x:v>
@@ -1719,7 +1710,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>142890</x:v>
+        <x:v>221290</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
         <x:v>38</x:v>
@@ -1759,7 +1750,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>144690</x:v>
+        <x:v>195990</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
         <x:v>38</x:v>
@@ -1779,7 +1770,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>149590</x:v>
+        <x:v>136890</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
         <x:v>38</x:v>
@@ -1799,7 +1790,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>159790</x:v>
+        <x:v>149590</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
         <x:v>38</x:v>
@@ -1819,7 +1810,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>160990</x:v>
+        <x:v>176390</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
         <x:v>38</x:v>
@@ -1836,10 +1827,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>167490</x:v>
+        <x:v>217390</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
         <x:v>38</x:v>
@@ -1856,7 +1847,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>170590</x:v>
@@ -1876,10 +1867,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>176190</x:v>
+        <x:v>167490</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
         <x:v>38</x:v>
@@ -1896,10 +1887,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>176390</x:v>
+        <x:v>160990</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
         <x:v>38</x:v>
@@ -1916,10 +1907,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>179190</x:v>
+        <x:v>201190</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
         <x:v>38</x:v>
@@ -1936,10 +1927,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>179290</x:v>
+        <x:v>131990</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
         <x:v>38</x:v>
@@ -1956,10 +1947,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>179290</x:v>
+        <x:v>217690</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
         <x:v>38</x:v>
@@ -1976,10 +1967,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>180990</x:v>
+        <x:v>226790</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
         <x:v>38</x:v>
@@ -1996,10 +1987,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>195990</x:v>
+        <x:v>179290</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
         <x:v>38</x:v>
@@ -2016,10 +2007,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>201190</x:v>
+        <x:v>130390</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
         <x:v>38</x:v>
@@ -2036,10 +2027,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>205390</x:v>
+        <x:v>180990</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
         <x:v>38</x:v>
@@ -2056,10 +2047,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>209290</x:v>
+        <x:v>209690</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
         <x:v>38</x:v>
@@ -2076,10 +2067,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>209690</x:v>
+        <x:v>176190</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
         <x:v>38</x:v>
@@ -2096,7 +2087,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>217390</x:v>
@@ -2116,7 +2107,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>217690</x:v>
@@ -2176,7 +2167,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
         <x:v>221290</x:v>
@@ -2196,7 +2187,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
         <x:v>226790</x:v>
@@ -2216,7 +2207,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
         <x:v>252590</x:v>
@@ -2236,7 +2227,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
         <x:v>258790</x:v>
